--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D1015-1E4A-49D9-A342-1200C54D614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07835911-CFA9-4BFD-8652-BCA485DA120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7090" yWindow="1060" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{CD501B07-102D-43AA-9B5C-3BB80503E440}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CD501B07-102D-43AA-9B5C-3BB80503E440}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{2D79C93A-E2E4-4160-B661-31F44B3B12BA}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2D79C93A-E2E4-4160-B661-31F44B3B12BA}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -92,12 +92,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -156,6 +150,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -415,6 +418,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,104 +749,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="24.90625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2023</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H3" s="9" t="str">
+        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S12" s="23"/>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -863,7 +873,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,13 +885,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -889,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -900,10 +910,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -911,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -933,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -944,10 +954,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07835911-CFA9-4BFD-8652-BCA485DA120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFEE264-13C5-4CCC-9828-27E73C1A08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="770" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6C3A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +366,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -432,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -439,7 +451,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -478,9 +498,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -755,7 +775,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -831,7 +851,34 @@
         <v>1</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H4" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -846,11 +893,28 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFEE264-13C5-4CCC-9828-27E73C1A08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1C50A-9C40-45E9-A38F-092B473C3FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="770" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -161,7 +161,10 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Old City of Varaždin</t>
+  </si>
+  <si>
+    <t>200.000</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,8 +231,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +264,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6C3A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +367,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -441,9 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -461,6 +459,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -468,14 +474,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,9 +496,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -775,7 +773,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -851,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3:H4" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -859,26 +857,24 @@
       <c r="A4" s="5">
         <v>2024</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>27</v>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -892,30 +888,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G3:G4">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1C50A-9C40-45E9-A38F-092B473C3FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BBD38-7C3F-4B6F-B96B-5750F240C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -449,14 +449,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -465,15 +466,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,9 +488,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -773,7 +765,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -871,7 +863,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9" t="str">
         <f>IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
@@ -890,7 +882,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BBD38-7C3F-4B6F-B96B-5750F240C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5203018-386D-4A71-A78E-23AC5FEE48F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>200.000</t>
+  </si>
+  <si>
+    <t>500th Anniversary - Death of Marko Marulić</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,6 +237,13 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -367,7 +377,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -442,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,7 +462,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -488,9 +533,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -765,7 +810,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -870,6 +915,73 @@
         <v/>
       </c>
     </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f>IF(OR(AND(G5&gt;1,G5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f>IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f>IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
@@ -882,12 +994,63 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5203018-386D-4A71-A78E-23AC5FEE48F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C26E79-D68B-4648-B019-F9702674895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -155,9 +158,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>500th Anniversary - Death of Marko Marulić</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -237,6 +240,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -377,7 +382,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -444,17 +449,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -462,7 +470,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -495,23 +512,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -533,9 +533,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -810,33 +810,31 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="10" customWidth="1"/>
-    <col min="3" max="5" width="24.90625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="10" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
@@ -846,16 +844,18 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
@@ -895,7 +895,7 @@
         <v>2024</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
@@ -905,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>2024</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
@@ -930,9 +930,9 @@
         <v>19</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="29">
+        <v>27</v>
+      </c>
+      <c r="G5" s="26">
         <v>1</v>
       </c>
       <c r="H5" s="9" t="str">
@@ -987,14 +987,14 @@
       <c r="U12" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1011,7 +1011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1028,7 +1028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1045,7 +1045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
